--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2041.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2041.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154373204438051</v>
+        <v>1.259725451469421</v>
       </c>
       <c r="B1">
-        <v>2.440290789675359</v>
+        <v>1.973381042480469</v>
       </c>
       <c r="C1">
-        <v>6.017089307108504</v>
+        <v>5.757643222808838</v>
       </c>
       <c r="D1">
-        <v>2.40832451347838</v>
+        <v>1.951203346252441</v>
       </c>
       <c r="E1">
-        <v>1.215888002472675</v>
+        <v>1.126999974250793</v>
       </c>
     </row>
   </sheetData>
